--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -175,12 +175,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//场景BUFF 进入场景的单位都会添加此BUFF</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +328,13 @@
   </si>
   <si>
     <t>IsOpen</t>
+  </si>
+  <si>
+    <t>SceneBuff</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -673,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J22"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,7 +720,7 @@
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,8 +751,11 @@
       <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -751,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -783,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -815,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -847,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -879,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -911,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -943,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -975,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1007,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1039,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1071,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -1103,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1135,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -1167,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -1199,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1231,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -1263,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -1295,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -1327,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -1359,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -1389,6 +1425,41 @@
       </c>
       <c r="J22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>130</v>
+      </c>
+      <c r="I23">
+        <v>130</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,38 @@
   <si>
     <t>Map/CreateUnits/CreateUnits0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/Scene1</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild3</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild4</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild5</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild6</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild7</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild8</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild9</t>
   </si>
 </sst>
 </file>
@@ -706,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1462,6 +1494,294 @@
         <v>236</v>
       </c>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>130</v>
+      </c>
+      <c r="I24">
+        <v>130</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>160</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>130</v>
+      </c>
+      <c r="I25">
+        <v>130</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>2003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>170</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>130</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>180</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>130</v>
+      </c>
+      <c r="I27">
+        <v>130</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>190</v>
+      </c>
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>130</v>
+      </c>
+      <c r="I28">
+        <v>130</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>2006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+      <c r="E29">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>130</v>
+      </c>
+      <c r="I29">
+        <v>130</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>2007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>210</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>130</v>
+      </c>
+      <c r="I30">
+        <v>130</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>2008</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>220</v>
+      </c>
+      <c r="E31">
+        <v>110</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>130</v>
+      </c>
+      <c r="I31">
+        <v>130</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>2009</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>230</v>
+      </c>
+      <c r="E32">
+        <v>120</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>130</v>
+      </c>
+      <c r="I32">
+        <v>130</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -201,12 +201,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//是否可以更换装备 1表示可以 其他表示否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//死亡后是否回到和平世界 1表示是 其他表示否</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +419,41 @@
   </si>
   <si>
     <t>Map/CreateUnits/CreateUnitsGuild9</t>
+  </si>
+  <si>
+    <t>ChangeEquipAble</t>
+  </si>
+  <si>
+    <t>DeathHuicheng</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity3</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity4</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity5</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity6</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity7</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity8</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity9</t>
   </si>
 </sst>
 </file>
@@ -738,21 +825,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,8 +873,14 @@
       <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -818,8 +911,14 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -850,8 +949,14 @@
       <c r="J3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -882,8 +987,14 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -914,8 +1025,14 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -946,8 +1063,14 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -978,8 +1101,14 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1010,8 +1139,14 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -1042,8 +1177,14 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1074,8 +1215,14 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1106,8 +1253,14 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1138,8 +1291,14 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -1170,8 +1329,14 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1202,8 +1367,14 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -1234,8 +1405,14 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -1266,8 +1443,14 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1298,8 +1481,14 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -1330,8 +1519,14 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -1362,8 +1557,14 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -1394,8 +1595,14 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -1426,8 +1633,14 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -1458,8 +1671,14 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -1493,8 +1712,14 @@
       <c r="K23">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -1525,8 +1750,14 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1557,8 +1788,14 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -1589,8 +1826,14 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -1621,8 +1864,14 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -1653,8 +1902,14 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -1685,8 +1940,14 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -1717,8 +1978,14 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -1749,8 +2016,14 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -1779,6 +2052,354 @@
         <v>130</v>
       </c>
       <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>3001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>150</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>130</v>
+      </c>
+      <c r="I33">
+        <v>130</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>3002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>160</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>130</v>
+      </c>
+      <c r="I34">
+        <v>130</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35">
+        <v>170</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>130</v>
+      </c>
+      <c r="I35">
+        <v>130</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>180</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>130</v>
+      </c>
+      <c r="I36">
+        <v>130</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>3005</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>190</v>
+      </c>
+      <c r="E37">
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>130</v>
+      </c>
+      <c r="I37">
+        <v>130</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>3006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>200</v>
+      </c>
+      <c r="E38">
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>130</v>
+      </c>
+      <c r="I38">
+        <v>130</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>3007</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>210</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>130</v>
+      </c>
+      <c r="I39">
+        <v>130</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>3008</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>220</v>
+      </c>
+      <c r="E40">
+        <v>110</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>130</v>
+      </c>
+      <c r="I40">
+        <v>130</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>3009</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>230</v>
+      </c>
+      <c r="E41">
+        <v>120</v>
+      </c>
+      <c r="F41">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>130</v>
+      </c>
+      <c r="I41">
+        <v>130</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
         <v>1</v>
       </c>
     </row>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -828,7 +828,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -1043,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -1061,7 +1061,7 @@
         <v>130</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -1099,7 +1099,7 @@
         <v>130</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -1175,7 +1175,7 @@
         <v>130</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -1213,7 +1213,7 @@
         <v>130</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -1271,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -1289,7 +1289,7 @@
         <v>130</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -1327,7 +1327,7 @@
         <v>130</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1385,7 +1385,7 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1403,7 +1403,7 @@
         <v>130</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1423,7 +1423,7 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1441,7 +1441,7 @@
         <v>130</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1461,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>70</v>
@@ -1499,7 +1499,7 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -1537,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E19">
         <v>70</v>
@@ -1575,7 +1575,7 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -1613,7 +1613,7 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1651,7 +1651,7 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>100</v>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2403,6 +2403,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>4000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>500</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>130</v>
+      </c>
+      <c r="I42">
+        <v>130</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,180 +280,184 @@
     <t>UnitExperience</t>
   </si>
   <si>
+    <t>StartX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsOpen</t>
+  </si>
+  <si>
+    <t>SceneBuff</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnits0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/Scene1</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild3</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild4</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild5</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild6</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild7</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild8</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuild9</t>
+  </si>
+  <si>
+    <t>ChangeEquipAble</t>
+  </si>
+  <si>
+    <t>DeathHuicheng</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity3</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity4</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity5</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity6</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity7</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity8</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity9</t>
+  </si>
+  <si>
     <t>UnitGold</t>
-  </si>
-  <si>
-    <t>StartX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsOpen</t>
-  </si>
-  <si>
-    <t>SceneBuff</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnits0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/Scene1</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild3</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild4</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild5</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild6</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild7</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild8</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuild9</t>
-  </si>
-  <si>
-    <t>ChangeEquipAble</t>
-  </si>
-  <si>
-    <t>DeathHuicheng</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity3</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity4</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity5</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity6</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity7</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity8</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitDiamond</t>
   </si>
 </sst>
 </file>
@@ -825,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -839,7 +843,7 @@
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,34 +857,37 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -897,28 +904,31 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>130</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+        <v>130</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -926,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -935,28 +945,31 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>130</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -964,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -973,28 +986,31 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
       <c r="H4">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>130</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1002,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -1011,28 +1027,31 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>15</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>130</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+        <v>130</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -1040,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>60</v>
@@ -1049,28 +1068,31 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>130</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -1078,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -1087,28 +1109,31 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>15</v>
       </c>
       <c r="H7">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>130</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1116,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>80</v>
@@ -1125,28 +1150,31 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>15</v>
       </c>
       <c r="H8">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>130</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+        <v>130</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -1154,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -1163,28 +1191,31 @@
         <v>30</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>130</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1192,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>80</v>
@@ -1201,28 +1232,31 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>15</v>
       </c>
       <c r="H10">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>130</v>
       </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1230,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1239,28 +1273,31 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>15</v>
       </c>
       <c r="H11">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>130</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+        <v>130</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1268,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1277,28 +1314,31 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>15</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I12">
         <v>130</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -1306,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -1315,28 +1355,31 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>15</v>
       </c>
       <c r="H13">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <v>130</v>
       </c>
       <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1344,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>120</v>
@@ -1353,28 +1396,31 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>15</v>
       </c>
       <c r="H14">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>130</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -1382,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>120</v>
@@ -1391,28 +1437,31 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>15</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I15">
         <v>130</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="L15">
+        <v>130</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -1420,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>120</v>
@@ -1429,28 +1478,31 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>130</v>
       </c>
       <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="L16">
+        <v>130</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1458,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>150</v>
@@ -1467,28 +1519,31 @@
         <v>70</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>15</v>
       </c>
       <c r="H17">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I17">
         <v>130</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -1496,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>150</v>
@@ -1505,28 +1560,31 @@
         <v>70</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>15</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>130</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -1534,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>150</v>
@@ -1543,28 +1601,31 @@
         <v>70</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>130</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -1572,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -1581,28 +1642,31 @@
         <v>100</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I20">
         <v>130</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -1610,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1619,28 +1683,31 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>15</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I21">
         <v>130</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -1648,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -1657,28 +1724,31 @@
         <v>100</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>15</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I22">
         <v>130</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -1686,40 +1756,43 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>15</v>
       </c>
       <c r="H23">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I23">
         <v>130</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>236</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
       <c r="M23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -1727,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>150</v>
@@ -1736,28 +1809,31 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>15</v>
       </c>
       <c r="H24">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I24">
         <v>130</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1765,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -1774,36 +1850,39 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>15</v>
       </c>
       <c r="H25">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>130</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2003</v>
       </c>
       <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
       </c>
       <c r="D26">
         <v>170</v>
@@ -1812,36 +1891,39 @@
         <v>60</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>15</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>130</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2004</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>180</v>
@@ -1850,36 +1932,39 @@
         <v>70</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>15</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I27">
         <v>130</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2005</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>190</v>
@@ -1888,36 +1973,39 @@
         <v>80</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>15</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>130</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2006</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -1926,36 +2014,39 @@
         <v>90</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>15</v>
       </c>
       <c r="H29">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I29">
         <v>130</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2007</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30">
         <v>210</v>
@@ -1964,36 +2055,39 @@
         <v>100</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>15</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>130</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2008</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>220</v>
@@ -2002,36 +2096,39 @@
         <v>110</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>15</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>130</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2009</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>230</v>
@@ -2040,28 +2137,31 @@
         <v>120</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>15</v>
       </c>
       <c r="H32">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <v>130</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3001</v>
       </c>
@@ -2069,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>150</v>
@@ -2078,28 +2178,31 @@
         <v>40</v>
       </c>
       <c r="F33">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>15</v>
       </c>
       <c r="H33">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>130</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3002</v>
       </c>
@@ -2107,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>160</v>
@@ -2116,36 +2219,39 @@
         <v>50</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>15</v>
       </c>
       <c r="H34">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I34">
         <v>130</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3003</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <v>170</v>
@@ -2154,36 +2260,39 @@
         <v>60</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>15</v>
       </c>
       <c r="H35">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I35">
         <v>130</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3004</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>180</v>
@@ -2192,36 +2301,39 @@
         <v>70</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>15</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>130</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3005</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>190</v>
@@ -2230,36 +2342,39 @@
         <v>80</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>15</v>
       </c>
       <c r="H37">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I37">
         <v>130</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3006</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>200</v>
@@ -2268,36 +2383,39 @@
         <v>90</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>15</v>
       </c>
       <c r="H38">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I38">
         <v>130</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3007</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>210</v>
@@ -2306,36 +2424,39 @@
         <v>100</v>
       </c>
       <c r="F39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>15</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I39">
         <v>130</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3008</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>220</v>
@@ -2344,36 +2465,39 @@
         <v>110</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>15</v>
       </c>
       <c r="H40">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I40">
         <v>130</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>3009</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <v>230</v>
@@ -2382,28 +2506,31 @@
         <v>120</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>15</v>
       </c>
       <c r="H41">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I41">
         <v>130</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -2411,33 +2538,77 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>500</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>15</v>
       </c>
       <c r="H42">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I42">
         <v>130</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="L42">
+        <v>130</v>
+      </c>
+      <c r="K42">
         <v>1</v>
       </c>
       <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>130</v>
+      </c>
+      <c r="J43">
+        <v>130</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
         <v>2</v>
       </c>
     </row>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -832,7 +832,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1516,7 +1516,7 @@
         <v>150</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>150</v>
       </c>
       <c r="E18">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>150</v>
       </c>
       <c r="E19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>200</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>200</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>200</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>150</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>170</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>180</v>
       </c>
       <c r="E27">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>200</v>
       </c>
       <c r="E29">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>210</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>220</v>
       </c>
       <c r="E31">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>230</v>
       </c>
       <c r="E32">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>150</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>170</v>
       </c>
       <c r="E35">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>180</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>190</v>
       </c>
       <c r="E37">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>200</v>
       </c>
       <c r="E38">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>210</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>220</v>
       </c>
       <c r="E40">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>230</v>
       </c>
       <c r="E41">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F41">
         <v>0</v>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -832,7 +832,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -832,7 +832,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -1062,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -1103,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -1144,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -1185,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -1226,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -1308,7 +1308,7 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -1349,7 +1349,7 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -1390,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1472,7 +1472,7 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1513,7 +1513,7 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -1554,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -1595,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="D19">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -1636,7 +1636,7 @@
         <v>27</v>
       </c>
       <c r="D20">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -1677,7 +1677,7 @@
         <v>28</v>
       </c>
       <c r="D21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -1718,7 +1718,7 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -1803,7 +1803,7 @@
         <v>33</v>
       </c>
       <c r="D24">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -1844,7 +1844,7 @@
         <v>34</v>
       </c>
       <c r="D25">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -1885,7 +1885,7 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1926,7 +1926,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>50</v>
@@ -1967,7 +1967,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -2008,7 +2008,7 @@
         <v>39</v>
       </c>
       <c r="D29">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>50</v>
@@ -2049,7 +2049,7 @@
         <v>40</v>
       </c>
       <c r="D30">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>50</v>
@@ -2090,7 +2090,7 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E31">
         <v>50</v>
@@ -2131,7 +2131,7 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>50</v>
@@ -2172,7 +2172,7 @@
         <v>45</v>
       </c>
       <c r="D33">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <v>50</v>
@@ -2213,7 +2213,7 @@
         <v>46</v>
       </c>
       <c r="D34">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>50</v>
@@ -2254,7 +2254,7 @@
         <v>47</v>
       </c>
       <c r="D35">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>50</v>
@@ -2295,7 +2295,7 @@
         <v>48</v>
       </c>
       <c r="D36">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -2336,7 +2336,7 @@
         <v>49</v>
       </c>
       <c r="D37">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -2377,7 +2377,7 @@
         <v>50</v>
       </c>
       <c r="D38">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E38">
         <v>50</v>
@@ -2418,7 +2418,7 @@
         <v>51</v>
       </c>
       <c r="D39">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -2459,7 +2459,7 @@
         <v>52</v>
       </c>
       <c r="D40">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E40">
         <v>50</v>
@@ -2500,7 +2500,7 @@
         <v>53</v>
       </c>
       <c r="D41">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <v>50</v>
@@ -2541,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="D42">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E42">
         <v>50</v>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -832,7 +832,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,14 @@
   </si>
   <si>
     <t>UnitDiamond</t>
+  </si>
+  <si>
+    <t>Map/Scene1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuildRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -829,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2163,13 +2171,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>3001</v>
+        <v>2010</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <v>80</v>
@@ -2204,13 +2212,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>80</v>
@@ -2245,13 +2253,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>80</v>
@@ -2286,13 +2294,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>80</v>
@@ -2327,13 +2335,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>80</v>
@@ -2368,13 +2376,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38">
         <v>80</v>
@@ -2409,13 +2417,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>80</v>
@@ -2450,13 +2458,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>80</v>
@@ -2491,13 +2499,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>80</v>
@@ -2532,16 +2540,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>4000</v>
+        <v>3009</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D42">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <v>50</v>
@@ -2565,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2573,7 +2581,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2582,13 +2590,13 @@
         <v>12</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>15</v>
@@ -2609,6 +2617,47 @@
         <v>1</v>
       </c>
       <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>4001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>130</v>
+      </c>
+      <c r="J44">
+        <v>130</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>1</v>
       </c>
     </row>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -197,7 +197,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//场景BUFF 进入场景的单位都会添加此BUFF</t>
+//游戏初始化的时候是否开启 1表示开放 2表示关闭</t>
         </r>
       </text>
     </comment>
@@ -223,7 +223,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否可以更换装备 1表示可以 其他表示否</t>
+//场景BUFF 进入场景的单位都会添加此BUFF</t>
         </r>
       </text>
     </comment>
@@ -249,7 +249,85 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//是否可以更换装备 1表示可以 其他表示否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //死亡后是否回到和平世界 1表示是 其他表示否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示没有特殊情况 1:工会战</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理参数 特殊情况为1的时候:()</t>
         </r>
       </text>
     </comment>
@@ -258,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,57 +493,67 @@
     <t>Map/CreateUnits/CreateUnitsGuild8</t>
   </si>
   <si>
+    <t>ChangeEquipAble</t>
+  </si>
+  <si>
+    <t>DeathHuicheng</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity3</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity4</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity5</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity6</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity7</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity8</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsActivity9</t>
+  </si>
+  <si>
+    <t>UnitGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitDiamond</t>
+  </si>
+  <si>
+    <t>Map/Scene1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuildRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
     <t>Map/CreateUnits/CreateUnitsGuild9</t>
-  </si>
-  <si>
-    <t>ChangeEquipAble</t>
-  </si>
-  <si>
-    <t>DeathHuicheng</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity3</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity4</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity5</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity6</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity7</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity8</t>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsActivity9</t>
-  </si>
-  <si>
-    <t>UnitGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitDiamond</t>
-  </si>
-  <si>
-    <t>Map/Scene1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map/CreateUnits/CreateUnitsGuildRank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitOpen</t>
   </si>
 </sst>
 </file>
@@ -837,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,7 +939,7 @@
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -886,16 +974,25 @@
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -929,14 +1026,20 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -970,14 +1073,20 @@
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1011,14 +1120,20 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="L4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1052,14 +1167,20 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -1093,14 +1214,20 @@
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -1134,14 +1261,20 @@
       <c r="K7">
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="L7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1175,14 +1308,20 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -1216,14 +1355,20 @@
       <c r="K9">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1257,14 +1402,20 @@
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="M10">
+      <c r="L10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1298,14 +1449,20 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="L11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1339,14 +1496,20 @@
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -1380,14 +1543,20 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="M13">
+      <c r="L13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1421,14 +1590,20 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>2</v>
+      <c r="L14">
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -1462,14 +1637,20 @@
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="M15">
-        <v>2</v>
+      <c r="L15">
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -1503,14 +1684,20 @@
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>2</v>
+      <c r="L16">
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1544,14 +1731,20 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>2</v>
+      <c r="L17">
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -1585,14 +1778,20 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>2</v>
+      <c r="L18">
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -1626,14 +1825,20 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>2</v>
+      <c r="L19">
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -1667,14 +1872,20 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>2</v>
+      <c r="L20">
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -1708,14 +1919,20 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="M21">
-        <v>2</v>
+      <c r="L21">
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -1749,14 +1966,20 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="M22">
-        <v>2</v>
+      <c r="L22">
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -1791,16 +2014,22 @@
         <v>1</v>
       </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>236</v>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
       <c r="N23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -1834,14 +2063,20 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="M24">
+      <c r="L24">
         <v>2</v>
       </c>
       <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1875,14 +2110,20 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>2</v>
       </c>
       <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -1916,14 +2157,20 @@
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="M26">
+      <c r="L26">
         <v>2</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -1957,14 +2204,20 @@
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="M27">
+      <c r="L27">
         <v>2</v>
       </c>
       <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -1998,14 +2251,20 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="M28">
+      <c r="L28">
         <v>2</v>
       </c>
       <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -2039,14 +2298,20 @@
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="M29">
+      <c r="L29">
         <v>2</v>
       </c>
       <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -2080,14 +2345,20 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="M30">
+      <c r="L30">
         <v>2</v>
       </c>
       <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -2121,14 +2392,20 @@
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="M31">
+      <c r="L31">
         <v>2</v>
       </c>
       <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -2136,7 +2413,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>80</v>
@@ -2162,22 +2439,28 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="M32">
+      <c r="L32">
         <v>2</v>
       </c>
       <c r="N32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2010</v>
       </c>
       <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>56</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
       </c>
       <c r="D33">
         <v>80</v>
@@ -2203,14 +2486,20 @@
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="M33">
+      <c r="L33">
         <v>2</v>
       </c>
       <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3001</v>
       </c>
@@ -2218,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>80</v>
@@ -2244,14 +2533,20 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="M34">
+      <c r="L34">
         <v>2</v>
       </c>
       <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3002</v>
       </c>
@@ -2259,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35">
         <v>80</v>
@@ -2285,14 +2580,20 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="M35">
+      <c r="L35">
         <v>2</v>
       </c>
       <c r="N35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3003</v>
       </c>
@@ -2300,7 +2601,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>80</v>
@@ -2326,14 +2627,20 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="M36">
+      <c r="L36">
         <v>2</v>
       </c>
       <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3004</v>
       </c>
@@ -2341,7 +2648,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37">
         <v>80</v>
@@ -2367,14 +2674,20 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="M37">
+      <c r="L37">
         <v>2</v>
       </c>
       <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3005</v>
       </c>
@@ -2382,7 +2695,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38">
         <v>80</v>
@@ -2408,14 +2721,20 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="M38">
+      <c r="L38">
         <v>2</v>
       </c>
       <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3006</v>
       </c>
@@ -2423,7 +2742,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39">
         <v>80</v>
@@ -2449,14 +2768,20 @@
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="M39">
+      <c r="L39">
         <v>2</v>
       </c>
       <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3007</v>
       </c>
@@ -2464,7 +2789,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>80</v>
@@ -2490,14 +2815,20 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="M40">
+      <c r="L40">
         <v>2</v>
       </c>
       <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>3008</v>
       </c>
@@ -2505,7 +2836,7 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41">
         <v>80</v>
@@ -2531,14 +2862,20 @@
       <c r="K41">
         <v>1</v>
       </c>
-      <c r="M41">
+      <c r="L41">
         <v>2</v>
       </c>
       <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>3009</v>
       </c>
@@ -2546,7 +2883,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42">
         <v>80</v>
@@ -2572,14 +2909,20 @@
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="M42">
+      <c r="L42">
         <v>2</v>
       </c>
       <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>4000</v>
       </c>
@@ -2613,14 +2956,20 @@
       <c r="K43">
         <v>1</v>
       </c>
-      <c r="M43">
-        <v>1</v>
+      <c r="L43">
+        <v>2</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4001</v>
       </c>
@@ -2654,11 +3003,17 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="M44">
-        <v>1</v>
+      <c r="L44">
+        <v>2</v>
       </c>
       <c r="N44">
         <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -301,7 +301,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0表示没有特殊情况 1:工会战</t>
+0表示没有特殊情况 1:工会战 2:表示夺宝奇兵</t>
         </r>
       </text>
     </comment>
@@ -327,7 +327,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理参数 特殊情况为1的时候:()</t>
+//特殊情况处理参数 特殊情况为1的时候:(根据排名获得的公会经验)</t>
         </r>
       </text>
     </comment>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,18 @@
   </si>
   <si>
     <t>InitOpen</t>
+  </si>
+  <si>
+    <t>500,400,300,200,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsGuildDuoBao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -618,9 +630,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,6 +950,7 @@
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
@@ -2064,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -2111,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -2158,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -2205,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2252,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2299,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2346,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2393,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2440,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2452,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -2498,8 +2512,11 @@
       <c r="P33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3001</v>
       </c>
@@ -2534,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2546,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3002</v>
       </c>
@@ -2581,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2593,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3003</v>
       </c>
@@ -2628,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2640,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3004</v>
       </c>
@@ -2675,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2687,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3005</v>
       </c>
@@ -2722,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2734,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3006</v>
       </c>
@@ -2769,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2781,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3007</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2828,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>3008</v>
       </c>
@@ -2863,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2875,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>3009</v>
       </c>
@@ -2910,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2922,56 +2939,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43">
+        <v>3010</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <v>500</v>
+      </c>
+      <c r="E43">
+        <v>1000</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>130</v>
+      </c>
+      <c r="J43">
+        <v>130</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>4000</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>200</v>
-      </c>
-      <c r="E43">
-        <v>50</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>15</v>
-      </c>
-      <c r="H43">
-        <v>15</v>
-      </c>
-      <c r="I43">
-        <v>130</v>
-      </c>
-      <c r="J43">
-        <v>130</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>2</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>4001</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2980,13 +3000,13 @@
         <v>12</v>
       </c>
       <c r="D44">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -3004,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3013,6 +3033,53 @@
         <v>1</v>
       </c>
       <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>4001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>130</v>
+      </c>
+      <c r="J45">
+        <v>130</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,10 @@
   </si>
   <si>
     <t>300,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsCopyMap1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3083,6 +3087,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>5000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>130</v>
+      </c>
+      <c r="J46">
+        <v>130</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -301,11 +301,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//当场景运行超过此时间 且 没有玩家在场景中了就关闭此场景 -1表示永久不关闭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 0表示没有特殊情况 1:工会战 2:表示夺宝奇兵</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +596,9 @@
   <si>
     <t>Map/CreateUnits/CreateUnitsCopyMap1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoPlayerCloseTime</t>
   </si>
 </sst>
 </file>
@@ -942,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,10 +983,10 @@
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1004,13 +1033,16 @@
         <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1054,10 +1086,13 @@
         <v>2</v>
       </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1101,10 +1136,13 @@
         <v>2</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1148,10 +1186,13 @@
         <v>2</v>
       </c>
       <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1195,10 +1236,13 @@
         <v>2</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -1242,10 +1286,13 @@
         <v>2</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -1289,10 +1336,13 @@
         <v>2</v>
       </c>
       <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1336,10 +1386,13 @@
         <v>2</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -1383,10 +1436,13 @@
         <v>2</v>
       </c>
       <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1430,10 +1486,13 @@
         <v>2</v>
       </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1477,10 +1536,13 @@
         <v>2</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1524,10 +1586,13 @@
         <v>2</v>
       </c>
       <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -1571,10 +1636,13 @@
         <v>2</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1618,10 +1686,13 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -1665,10 +1736,13 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -1712,10 +1786,13 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1759,10 +1836,13 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -1806,10 +1886,13 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -1853,10 +1936,13 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -1900,10 +1986,13 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -1947,10 +2036,13 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -1994,10 +2086,13 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -2044,10 +2139,13 @@
         <v>2</v>
       </c>
       <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -2091,10 +2189,13 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -2138,10 +2239,13 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -2185,10 +2289,13 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -2232,10 +2339,13 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -2279,10 +2389,13 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -2326,10 +2439,13 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -2373,10 +2489,13 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -2420,10 +2539,13 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -2467,10 +2589,13 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -2514,13 +2639,16 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="2" t="s">
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3001</v>
       </c>
@@ -2564,10 +2692,13 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3002</v>
       </c>
@@ -2611,10 +2742,13 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3003</v>
       </c>
@@ -2658,10 +2792,13 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3004</v>
       </c>
@@ -2705,10 +2842,13 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3005</v>
       </c>
@@ -2752,10 +2892,13 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3006</v>
       </c>
@@ -2799,10 +2942,13 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3007</v>
       </c>
@@ -2846,10 +2992,13 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>3008</v>
       </c>
@@ -2893,10 +3042,13 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>3009</v>
       </c>
@@ -2940,10 +3092,13 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>3010</v>
       </c>
@@ -2987,13 +3142,16 @@
         <v>1</v>
       </c>
       <c r="P43">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="2" t="s">
+        <v>-1</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -3037,10 +3195,13 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4001</v>
       </c>
@@ -3084,10 +3245,13 @@
         <v>1</v>
       </c>
       <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>5000</v>
       </c>
@@ -3131,6 +3295,9 @@
         <v>2</v>
       </c>
       <c r="P46">
+        <v>10</v>
+      </c>
+      <c r="Q46">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,11 +327,63 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//是否强制设置玩家的攻击模式 0表是否  其他表示设置为的攻击模式 (1:和平模式 2:组队模式 3:全体模式 4:阵营模式(玩家,NPC) 5:行会模式)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//刷新boss额外条件 0表示无 1表示场景中的全部普通单位死亡后再刷新</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 0表示没有特殊情况 1:工会战 2:表示夺宝奇兵</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,6 +651,12 @@
   </si>
   <si>
     <t>NoPlayerCloseTime</t>
+  </si>
+  <si>
+    <t>ForceAttackMode</t>
+  </si>
+  <si>
+    <t>CreateBossRule</t>
   </si>
 </sst>
 </file>
@@ -971,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,10 +1041,10 @@
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,13 +1094,19 @@
         <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1091,8 +1155,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1141,8 +1211,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1191,8 +1267,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1241,8 +1323,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -1291,8 +1379,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -1341,8 +1435,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1391,8 +1491,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -1441,8 +1547,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1491,8 +1603,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1541,8 +1659,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1591,8 +1715,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -1641,8 +1771,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1691,8 +1827,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -1741,8 +1883,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -1791,8 +1939,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1841,8 +1995,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -1891,8 +2051,14 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -1941,8 +2107,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -1991,8 +2163,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -2041,8 +2219,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -2091,8 +2275,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -2144,8 +2334,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -2194,8 +2390,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -2244,8 +2446,14 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -2294,8 +2502,14 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -2344,8 +2558,14 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -2394,8 +2614,14 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -2444,8 +2670,14 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -2494,8 +2726,14 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -2544,8 +2782,14 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -2594,8 +2838,14 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -2642,13 +2892,19 @@
         <v>-1</v>
       </c>
       <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3001</v>
       </c>
@@ -2697,8 +2953,14 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3002</v>
       </c>
@@ -2747,8 +3009,14 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3003</v>
       </c>
@@ -2797,8 +3065,14 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3004</v>
       </c>
@@ -2847,8 +3121,14 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3005</v>
       </c>
@@ -2897,8 +3177,14 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3006</v>
       </c>
@@ -2947,8 +3233,14 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3007</v>
       </c>
@@ -2997,8 +3289,14 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>3008</v>
       </c>
@@ -3047,8 +3345,14 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>3009</v>
       </c>
@@ -3097,8 +3401,14 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>3010</v>
       </c>
@@ -3145,13 +3455,19 @@
         <v>-1</v>
       </c>
       <c r="Q43">
-        <v>2</v>
-      </c>
-      <c r="R43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -3200,8 +3516,14 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4001</v>
       </c>
@@ -3250,8 +3572,14 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>5000</v>
       </c>
@@ -3298,6 +3626,12 @@
         <v>10</v>
       </c>
       <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3626,7 +3626,7 @@
         <v>10</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>1</v>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,6 +657,30 @@
   </si>
   <si>
     <t>CreateBossRule</t>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsCopyMap2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsCopyMap3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsCopyMap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsCopyMap5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsCopyMap6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/CreateUnits/CreateUnitsCopyMap7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1029,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3635,6 +3659,342 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>5001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>130</v>
+      </c>
+      <c r="J47">
+        <v>130</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>5002</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48">
+        <v>70</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>130</v>
+      </c>
+      <c r="J48">
+        <v>130</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>10</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>5003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49">
+        <v>70</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>130</v>
+      </c>
+      <c r="J49">
+        <v>130</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>10</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>5004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>130</v>
+      </c>
+      <c r="J50">
+        <v>130</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>5005</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>130</v>
+      </c>
+      <c r="J51">
+        <v>130</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>5006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>70</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>130</v>
+      </c>
+      <c r="J52">
+        <v>130</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -301,7 +301,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//当场景运行超过此时间 且 没有玩家在场景中了就关闭此场景 -1表示永久不关闭</t>
+//0表示回到和平世界 1表示回到本地图随机位置</t>
         </r>
       </text>
     </comment>
@@ -327,7 +327,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否强制设置玩家的攻击模式 0表是否  其他表示设置为的攻击模式 (1:和平模式 2:组队模式 3:全体模式 4:阵营模式(玩家,NPC) 5:行会模式)</t>
+//当场景运行超过此时间 且 没有玩家在场景中了就关闭此场景 -1表示永久不关闭</t>
         </r>
       </text>
     </comment>
@@ -353,7 +353,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//刷新boss额外条件 0表示无 1表示场景中的全部普通单位死亡后再刷新</t>
+//当场景运行超过此时间就关闭此场景 -1表示永久不关闭 (竞技场)</t>
         </r>
       </text>
     </comment>
@@ -379,7 +379,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0表示没有特殊情况 1:工会战 2:表示夺宝奇兵</t>
+//是否强制设置玩家的攻击模式 0表是否  其他表示设置为的攻击模式 (1:和平模式 2:组队模式 3:全体模式 4:阵营模式(玩家,NPC) 5:行会模式)</t>
         </r>
       </text>
     </comment>
@@ -405,7 +405,85 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理参数 特殊情况为1的时候:(根据排名获得的公会经验)</t>
+//是否可以匹配 0否 1可以</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//刷新boss额外条件 0表示无 1表示场景中的全部普通单位死亡后再刷新</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//0表示没有特殊情况 1:工会战 2夺宝奇兵 3竞技场</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理参数:1(根据排名获得的公会经验) 2(需要保留宝箱的时间,宝箱道具ID)</t>
         </r>
       </text>
     </comment>
@@ -414,7 +492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +759,15 @@
   <si>
     <t>Map/CreateUnits/CreateUnitsCopyMap7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiChengMode</t>
+  </si>
+  <si>
+    <t>PiPeiAble</t>
+  </si>
+  <si>
+    <t>CloseTime</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1065,10 +1152,10 @@
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,22 +1202,31 @@
         <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1174,19 +1270,28 @@
         <v>2</v>
       </c>
       <c r="P2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1230,19 +1335,28 @@
         <v>2</v>
       </c>
       <c r="P3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1286,19 +1400,28 @@
         <v>2</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1342,19 +1465,28 @@
         <v>2</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -1398,19 +1530,28 @@
         <v>2</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -1454,19 +1595,28 @@
         <v>2</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1510,19 +1660,28 @@
         <v>2</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -1566,19 +1725,28 @@
         <v>2</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1622,19 +1790,28 @@
         <v>2</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1678,19 +1855,28 @@
         <v>2</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1734,19 +1920,28 @@
         <v>2</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -1790,19 +1985,28 @@
         <v>2</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1846,19 +2050,28 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -1902,19 +2115,28 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -1958,19 +2180,28 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -2014,19 +2245,28 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -2070,19 +2310,28 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -2126,19 +2375,28 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -2182,19 +2440,28 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -2238,19 +2505,28 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -2294,19 +2570,28 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -2353,19 +2638,28 @@
         <v>2</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -2409,19 +2703,28 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -2465,19 +2768,28 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -2521,19 +2833,28 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -2577,19 +2898,28 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -2633,19 +2963,28 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -2689,19 +3028,28 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -2745,19 +3093,28 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -2801,19 +3158,28 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -2857,19 +3223,28 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -2913,22 +3288,31 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3001</v>
       </c>
@@ -2972,19 +3356,28 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3002</v>
       </c>
@@ -3028,19 +3421,28 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3003</v>
       </c>
@@ -3084,19 +3486,28 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3004</v>
       </c>
@@ -3140,19 +3551,28 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3005</v>
       </c>
@@ -3196,19 +3616,28 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3006</v>
       </c>
@@ -3252,19 +3681,28 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3007</v>
       </c>
@@ -3308,19 +3746,28 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>3008</v>
       </c>
@@ -3364,19 +3811,28 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>3009</v>
       </c>
@@ -3420,19 +3876,28 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>3010</v>
       </c>
@@ -3476,22 +3941,31 @@
         <v>1</v>
       </c>
       <c r="P43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S43">
-        <v>2</v>
-      </c>
-      <c r="T43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -3535,19 +4009,28 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4001</v>
       </c>
@@ -3591,19 +4074,28 @@
         <v>1</v>
       </c>
       <c r="P45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>5000</v>
       </c>
@@ -3647,19 +4139,28 @@
         <v>2</v>
       </c>
       <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
         <v>10</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
       <c r="R46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>5001</v>
       </c>
@@ -3703,19 +4204,28 @@
         <v>2</v>
       </c>
       <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
         <v>10</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
       <c r="R47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>5002</v>
       </c>
@@ -3759,19 +4269,28 @@
         <v>2</v>
       </c>
       <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
         <v>10</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
       <c r="R48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>5003</v>
       </c>
@@ -3815,19 +4334,28 @@
         <v>2</v>
       </c>
       <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
         <v>10</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
       <c r="R49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>5004</v>
       </c>
@@ -3871,19 +4399,28 @@
         <v>2</v>
       </c>
       <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
         <v>10</v>
       </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
       <c r="R50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>5005</v>
       </c>
@@ -3927,19 +4464,28 @@
         <v>2</v>
       </c>
       <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
         <v>10</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>5006</v>
       </c>
@@ -3983,16 +4529,90 @@
         <v>2</v>
       </c>
       <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
         <v>10</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
       <c r="R52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S52">
         <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>5007</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>15</v>
+      </c>
+      <c r="I53">
+        <v>130</v>
+      </c>
+      <c r="J53">
+        <v>130</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53">
+        <v>30</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -457,11 +457,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//数据显示类型 0不显示 1公会战数据 2竞技场数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //0表示没有特殊情况 1:工会战 2夺宝奇兵 3竞技场</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,6 +794,9 @@
   </si>
   <si>
     <t>CloseTime</t>
+  </si>
+  <si>
+    <t>DataShowType</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1152,10 +1181,10 @@
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="23" max="23" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1220,13 +1249,16 @@
         <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1290,8 +1322,11 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1355,8 +1390,11 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1420,8 +1458,11 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1485,8 +1526,11 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
@@ -1550,8 +1594,11 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
@@ -1615,8 +1662,11 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -1680,8 +1730,11 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -1745,8 +1798,11 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
@@ -1810,8 +1866,11 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1875,8 +1934,11 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>301</v>
       </c>
@@ -1940,8 +2002,11 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>302</v>
       </c>
@@ -2005,8 +2070,11 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>400</v>
       </c>
@@ -2070,8 +2138,11 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>401</v>
       </c>
@@ -2135,8 +2206,11 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>402</v>
       </c>
@@ -2200,8 +2274,11 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>500</v>
       </c>
@@ -2265,8 +2342,11 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>501</v>
       </c>
@@ -2330,8 +2410,11 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>502</v>
       </c>
@@ -2395,8 +2478,11 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>600</v>
       </c>
@@ -2460,8 +2546,11 @@
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>601</v>
       </c>
@@ -2525,8 +2614,11 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>602</v>
       </c>
@@ -2590,8 +2682,11 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -2658,8 +2753,11 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -2723,8 +2821,11 @@
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -2788,8 +2889,11 @@
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -2853,8 +2957,11 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -2918,8 +3025,11 @@
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -2983,8 +3093,11 @@
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -3048,8 +3161,11 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -3113,8 +3229,11 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -3178,8 +3297,11 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -3243,8 +3365,11 @@
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -3306,13 +3431,16 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3001</v>
       </c>
@@ -3376,8 +3504,11 @@
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3002</v>
       </c>
@@ -3441,8 +3572,11 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3003</v>
       </c>
@@ -3506,8 +3640,11 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3004</v>
       </c>
@@ -3571,8 +3708,11 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3005</v>
       </c>
@@ -3636,8 +3776,11 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3006</v>
       </c>
@@ -3701,8 +3844,11 @@
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3007</v>
       </c>
@@ -3766,8 +3912,11 @@
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>3008</v>
       </c>
@@ -3831,8 +3980,11 @@
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>3009</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>3010</v>
       </c>
@@ -3959,13 +4114,16 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>2</v>
-      </c>
-      <c r="W43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>2</v>
+      </c>
+      <c r="X43" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -4029,8 +4187,11 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4001</v>
       </c>
@@ -4094,8 +4255,11 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>5000</v>
       </c>
@@ -4159,8 +4323,11 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>5001</v>
       </c>
@@ -4224,8 +4391,11 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>5002</v>
       </c>
@@ -4289,8 +4459,11 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>5003</v>
       </c>
@@ -4354,8 +4527,11 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>5004</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>5005</v>
       </c>
@@ -4484,8 +4663,11 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>5006</v>
       </c>
@@ -4549,8 +4731,11 @@
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>5007</v>
       </c>
@@ -4600,7 +4785,7 @@
         <v>10</v>
       </c>
       <c r="R53">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -4612,7 +4797,13 @@
         <v>0</v>
       </c>
       <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
         <v>3</v>
+      </c>
+      <c r="X53">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/scenes.xlsx
+++ b/bin/conf/scenes.xlsx
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="U56" sqref="U56"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>1</v>
